--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201745.162927339</v>
+        <v>-1204342.994499975</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>304.874404635055</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>84.24691516365694</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.4731980727255</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.4575830954819</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>78.72785644212</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>20.50139324550901</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>257.4740806085309</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.2159295992921</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.1211118091009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658581</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>125.8964770521859</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>47.03522768387903</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>56.28606708955968</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="S13" t="n">
-        <v>168.9775297124196</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>109.7234882887309</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>40.36264995190464</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>35.03063761899501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>141.5888089825039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>164.0001714587657</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>200.4929922977277</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2041656279969</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261726</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.2514313196363</v>
+        <v>1160.693733517772</v>
       </c>
       <c r="C2" t="n">
-        <v>362.2514313196363</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="D2" t="n">
-        <v>362.2514313196363</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E2" t="n">
-        <v>362.2514313196363</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1937.432905557705</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1937.432905557705</v>
       </c>
       <c r="Y2" t="n">
-        <v>748.8512713837581</v>
+        <v>1547.293573581893</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>158.9044387371544</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>343.6260600182044</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>638.329617049676</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.0360657270445</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="C4" t="n">
-        <v>504.0998827991376</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D4" t="n">
-        <v>353.9832433868019</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E4" t="n">
-        <v>353.9832433868019</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>353.9832433868019</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4516,22 +4516,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270445</v>
+        <v>1360.294284919085</v>
       </c>
       <c r="W4" t="n">
-        <v>673.0360657270445</v>
+        <v>1070.877114882125</v>
       </c>
       <c r="X4" t="n">
-        <v>673.0360657270445</v>
+        <v>842.8875639841075</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.0360657270445</v>
+        <v>622.0949848405774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>841.8735437647176</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>841.8735437647176</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4604,13 +4604,13 @@
         <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>822.6111008985771</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>653.6749179706702</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>503.5582785583345</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>355.6451849759413</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1022.596644429579</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>794.6070935315613</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y7" t="n">
-        <v>794.6070935315613</v>
+        <v>1004.259565728817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>954.4556767145652</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2055.097896014972</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.958564039161</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>567.613649430832</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C10" t="n">
-        <v>567.613649430832</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>417.4970100184962</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>269.5839164361031</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>269.5839164361031</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5839164361031</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>123.3667296539609</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>970.0546934046018</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>749.2621142610717</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="11">
@@ -5021,34 +5021,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S13" t="n">
-        <v>2209.233006385774</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1989.631541408715</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1700.556314752913</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.871826547026</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>666.6476097656489</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>518.7345161832558</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>371.8445686853454</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>204.6484694002253</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2406.192730093489</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2223.337895748393</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="17">
@@ -5498,31 +5498,31 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820876</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069454</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1008.811725321348</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>788.0191461778176</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856866</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>489.836033045444</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>341.9229394630509</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>195.0329919651405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>195.0329919651405</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159263</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,22 +6950,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,22 +7166,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>45.76488231024557</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>60.39848713595251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.3614417306902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.8490169493223</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10.85445046951701</v>
       </c>
       <c r="S13" t="n">
-        <v>12.04875628922503</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465705</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>30.57122455749295</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>26.01259675821702</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>61.70948393027143</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.21666309130947</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.09054721822693</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1240047.724002444</v>
+        <v>1240047.724002445</v>
       </c>
     </row>
     <row r="9">
@@ -26314,7 +26314,7 @@
         <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
@@ -26323,37 +26323,37 @@
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="G2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="O2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363161</v>
+        <v>19427.7179936319</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008437</v>
+        <v>55720.99847008439</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="F4" t="n">
-        <v>9947.144321768952</v>
-      </c>
       <c r="G4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768814</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.00358486235</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486232</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486235</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1111083.627680959</v>
+        <v>-1111443.710696677</v>
       </c>
       <c r="C6" t="n">
-        <v>-215772.4630471557</v>
+        <v>-215772.4630471556</v>
       </c>
       <c r="D6" t="n">
-        <v>-12333.72143504974</v>
+        <v>-12333.72143504965</v>
       </c>
       <c r="E6" t="n">
-        <v>-254874.1510227799</v>
+        <v>-254908.8889482157</v>
       </c>
       <c r="F6" t="n">
-        <v>70538.31078457533</v>
+        <v>70503.57285913965</v>
       </c>
       <c r="G6" t="n">
-        <v>70538.3107845755</v>
+        <v>70503.57285913968</v>
       </c>
       <c r="H6" t="n">
-        <v>70538.31078457538</v>
+        <v>70503.57285913979</v>
       </c>
       <c r="I6" t="n">
-        <v>70538.31078457499</v>
+        <v>70503.57285913959</v>
       </c>
       <c r="J6" t="n">
-        <v>-97066.86702540729</v>
+        <v>-97101.60495084286</v>
       </c>
       <c r="K6" t="n">
-        <v>21428.21807852101</v>
+        <v>21393.48015308523</v>
       </c>
       <c r="L6" t="n">
-        <v>44204.56078705408</v>
+        <v>44204.5607870539</v>
       </c>
       <c r="M6" t="n">
-        <v>-21422.74915482607</v>
+        <v>-21422.74915482602</v>
       </c>
       <c r="N6" t="n">
+        <v>63632.27878068591</v>
+      </c>
+      <c r="O6" t="n">
+        <v>63632.27878068606</v>
+      </c>
+      <c r="P6" t="n">
         <v>63632.2787806858</v>
-      </c>
-      <c r="O6" t="n">
-        <v>63632.27878068587</v>
-      </c>
-      <c r="P6" t="n">
-        <v>63632.27878068591</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000392</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.8166233022536</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>264.9940535537561</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.4032988526379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>173.409786881708</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>386.3746524962024</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>91.76688810888209</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.20511842363916</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.40188652749006</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.8346236262831</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>132.7967524980583</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.06635332027841</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>512.9101366533187</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>638.0665277849416</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.9915131655314</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>108.745103201163</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>370.3138922088742</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>506.7248157016083</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8360547723487</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
